--- a/Input/urbs_intertemporal_2050/2026.xlsx
+++ b/Input/urbs_intertemporal_2050/2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FC81C5-9A19-46EF-9934-AB046F17374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2277EC6-8E46-4214-98A6-91EAF257F6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7545" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -535,16 +535,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <top style="thin">
@@ -911,10 +902,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,11 +952,165 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{6C851707-FED7-4780-A707-21CC1CC78D6E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{9381267A-4A4C-4E66-B596-5ECF48A783E8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{7DD6E0BF-A960-4C87-8926-7EF9105B14EF}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{63AA43A6-5E53-4FE6-A30C-4C1524596D2B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{E03A62B1-0B9E-482B-8ADE-5217BA2B12A5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{10E6C4D1-0BBD-4C96-B312-464187A6710D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1253,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1766,13 +1911,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:C13 A11 C11">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A11:C13">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2296,7 +2436,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2670,13 +2810,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2699,7 +2842,95 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2879125000</v>
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>239927083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>239927083</v>
       </c>
     </row>
   </sheetData>

--- a/Input/urbs_intertemporal_2050/2026.xlsx
+++ b/Input/urbs_intertemporal_2050/2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2277EC6-8E46-4214-98A6-91EAF257F6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9801A3-F4B6-4A60-A438-D65FD0B8636F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>Gas Plant (CCGT) CCUS</t>
-  </si>
-  <si>
-    <t>Coal Plant CCUS</t>
   </si>
 </sst>
 </file>
@@ -860,9 +857,9 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -884,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -908,9 +905,9 @@
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -924,7 +921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -952,7 +949,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -966,7 +963,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -980,7 +977,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -994,7 +991,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1008,7 +1005,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1022,7 +1019,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1064,7 +1061,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1078,7 +1075,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1092,7 +1089,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1122,9 +1119,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1148,9 +1145,9 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1172,9 +1169,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1203,9 +1200,9 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1269,7 +1266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1329,7 +1326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1349,7 +1346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1398,13 +1395,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1787,12 +1787,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="21">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1928,9 +1928,9 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>0.47851999999999989</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>96</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>96</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>96</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>97</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>97</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>97</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>98</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>98</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>98</v>
       </c>
@@ -2466,9 +2466,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2526,9 +2526,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>3.4999999999999999E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2778,9 +2778,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2812,16 +2812,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>239927083</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>

--- a/Input/urbs_intertemporal_2050/2026.xlsx
+++ b/Input/urbs_intertemporal_2050/2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9801A3-F4B6-4A60-A438-D65FD0B8636F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939907C7-3200-47E1-B505-0DD28FC92FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -341,15 +341,25 @@
   </si>
   <si>
     <t>Gas Plant (CCGT) CCUS</t>
+  </si>
+  <si>
+    <t>Piped Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG </t>
+  </si>
+  <si>
+    <t>Gas Plant (CCGT) LNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -381,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +437,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -528,11 +550,92 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -1194,209 +1297,287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="D2" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="19" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="17" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
-      </c>
-      <c r="E6" t="s">
+        <v>8.64</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D7">
-        <v>1.75</v>
-      </c>
-      <c r="E7" t="s">
+        <v>22.68</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D8">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D9">
-        <v>5.2</v>
-      </c>
-      <c r="E9" t="s">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="E10" t="s">
+        <v>6.12</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11" t="s">
+        <v>6.48</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="26" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>23.62</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use per hour" prompt="For stock commodities, this value limits the energy use per hour (MW)._x000a_" sqref="F1" xr:uid="{65505EDA-453C-4145-A2FC-18518B2577B6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use" prompt="For stock commodities, this value limits annual use (MWh) of this commodity. For CO2, this value limits the amount of emissions (t_CO2). If simulation timespan does not cover a full year, the sums are multiplied accordingly before (cf. 'weight' in urbs)." sqref="E1" xr:uid="{1C688142-FEFA-44FE-9E64-ADB2EB3C388E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commodity price (€/MWh)" prompt="Cost for purchasing one unit (MWh) of a stock or buy commodity. Revenue for selling one unit (MWh) of a sell commodity. Cost for creating one unit of environmental commodity._x000a__x000a_Multiplier for sheet &quot;Buy-Sell-Price&quot; for commodity types &quot;Buy&quot; and &quot;Sell&quot;._x000a_" sqref="D1" xr:uid="{6DDE01BB-59DD-46A6-BE11-B5EE3B76DF65}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,9 +2091,70 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>999999</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="27">
+        <v>802808.92800000007</v>
+      </c>
+      <c r="H14" s="27">
+        <v>16725.186000000002</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L14" s="14">
+        <v>25</v>
+      </c>
+      <c r="M14" s="17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A11:C13">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:XFD14">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1922,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A33" sqref="A33:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2434,21 +2676,74 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E35" s="20">
+        <f>D35*E33</f>
+        <v>0.24599999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E32">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -2456,7 +2751,115 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E85B9C7-47A1-4A72-AFA7-ECBDF57A980E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E33 E34:E35">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C33EC4F1-28F5-4EE1-B5B3-9F07A8D9C507}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AFC45F0B-0B11-401A-85AD-943F16731E9F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E85B9C7-47A1-4A72-AFA7-ECBDF57A980E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D34:D35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C33EC4F1-28F5-4EE1-B5B3-9F07A8D9C507}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AFC45F0B-0B11-401A-85AD-943F16731E9F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:D35</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Input/urbs_intertemporal_2050/2026.xlsx
+++ b/Input/urbs_intertemporal_2050/2026.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939907C7-3200-47E1-B505-0DD28FC92FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C7E259-6073-43A5-BA95-DA9DA911ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
   <si>
     <t>Property</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>Gas</t>
   </si>
   <si>
     <t>CO2</t>
@@ -563,43 +560,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <border>
         <top style="thin">
@@ -1012,16 +973,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,13 +1187,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1252,13 +1213,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>23</v>
@@ -1462,10 +1423,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -1482,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>23</v>
@@ -1502,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>23</v>
@@ -1522,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>23</v>
@@ -1542,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>23</v>
@@ -1559,7 +1520,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1576,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -1590,40 +1551,40 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1631,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1669,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1707,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1745,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1783,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1821,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1859,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1897,7 +1858,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1935,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1973,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="21">
         <v>0</v>
@@ -2014,7 +1975,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="21">
         <v>0</v>
@@ -2055,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="21">
         <v>0</v>
@@ -2096,7 +2057,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="21">
         <v>0</v>
@@ -2133,28 +2094,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:C13">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A11:C14">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:XFD14">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2166,38 +2112,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2205,13 +2151,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2219,13 +2165,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2233,13 +2179,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2247,13 +2193,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2264,13 +2210,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>0.41</v>
@@ -2278,13 +2224,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>0.36299999999999999</v>
@@ -2295,13 +2241,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2312,13 +2258,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>0.6</v>
@@ -2326,13 +2272,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>0.20499999999999999</v>
@@ -2343,13 +2289,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2357,13 +2303,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0.35</v>
@@ -2371,13 +2317,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2385,13 +2331,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2399,13 +2345,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>0.38</v>
@@ -2413,13 +2359,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2430,13 +2376,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>0.45</v>
@@ -2444,13 +2390,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>0.34179999999999999</v>
@@ -2461,13 +2407,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2475,13 +2421,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2489,13 +2435,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2503,13 +2449,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2517,13 +2463,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="20">
         <v>1</v>
@@ -2535,13 +2481,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="20">
         <v>0.36</v>
@@ -2553,13 +2499,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="20">
         <v>3.4180000000000002E-2</v>
@@ -2571,13 +2517,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="20">
         <v>1</v>
@@ -2589,13 +2535,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20">
         <v>0.32</v>
@@ -2607,13 +2553,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="20">
         <v>3.6299999999999999E-2</v>
@@ -2625,13 +2571,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="C30" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="20">
         <v>1</v>
@@ -2642,13 +2588,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="20">
         <v>0.4</v>
@@ -2660,13 +2606,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="20">
         <v>2.0500000000000001E-2</v>
@@ -2678,13 +2624,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="20">
         <v>1</v>
@@ -2695,13 +2641,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="20">
         <v>0.6</v>
@@ -2713,13 +2659,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="20">
         <v>0.20499999999999999</v>
@@ -2730,9 +2676,45 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="8" priority="7">
+  <conditionalFormatting sqref="A34:C35 E34:E35">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:E29 A31:E33 A30 C30:E30">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AFC45F0B-0B11-401A-85AD-943F16731E9F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E85B9C7-47A1-4A72-AFA7-ECBDF57A980E}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E32">
@@ -2751,30 +2733,6 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D35">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E85B9C7-47A1-4A72-AFA7-ECBDF57A980E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D33:E33 E34:E35">
     <cfRule type="dataBar" priority="4">
       <dataBar>
@@ -2789,29 +2747,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AFC45F0B-0B11-401A-85AD-943F16731E9F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AFC45F0B-0B11-401A-85AD-943F16731E9F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:D35</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E85B9C7-47A1-4A72-AFA7-ECBDF57A980E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -2842,21 +2796,6 @@
           </x14:cfRule>
           <xm:sqref>D33:E33 E34:E35</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AFC45F0B-0B11-401A-85AD-943F16731E9F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D33:D35</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -2873,49 +2812,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2936,61 +2875,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -2998,7 +2937,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3057,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -3116,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3191,19 +3130,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3226,10 +3165,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Input/urbs_intertemporal_2050/2026.xlsx
+++ b/Input/urbs_intertemporal_2050/2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C7E259-6073-43A5-BA95-DA9DA911ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F050A2-324A-4A29-ADB0-B9CF8637B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -94,15 +94,9 @@
     <t>maxperhour</t>
   </si>
   <si>
-    <t>WindOff</t>
-  </si>
-  <si>
     <t>SupIm</t>
   </si>
   <si>
-    <t>WindOn</t>
-  </si>
-  <si>
     <t>Hydro</t>
   </si>
   <si>
@@ -172,12 +166,6 @@
     <t>area-per-cap</t>
   </si>
   <si>
-    <t>Wind (onshore)</t>
-  </si>
-  <si>
-    <t>Wind (offshore)</t>
-  </si>
-  <si>
     <t>Hydro (run-of-river)</t>
   </si>
   <si>
@@ -308,12 +296,6 @@
   </si>
   <si>
     <t>EU27.Elec</t>
-  </si>
-  <si>
-    <t>EU27.WindOff</t>
-  </si>
-  <si>
-    <t>EU27.WindOn</t>
   </si>
   <si>
     <t>EU27.Hydro</t>
@@ -495,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -511,9 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -963,216 +942,127 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C12">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{63AA43A6-5E53-4FE6-A30C-4C1524596D2B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{E03A62B1-0B9E-482B-8ADE-5217BA2B12A5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{10E6C4D1-0BBD-4C96-B312-464187A6710D}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1187,13 +1077,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1213,13 +1103,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1258,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,250 +1166,204 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="17" t="e">
+      <c r="D2" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="17" t="e">
+      <c r="E2" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="17" t="e">
+      <c r="F2" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="17" t="e">
+      <c r="C3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E3" s="17" t="e">
+      <c r="E3" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F3" s="17" t="e">
+      <c r="F3" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="17" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="17" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="17" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="B4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>8.64</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="17" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="17" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="D5">
+        <v>22.68</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="C6" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="D6">
-        <v>8.64</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>24</v>
+        <v>65</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>23</v>
+      <c r="B7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>22.68</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>24</v>
+        <v>67.680000000000007</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>26</v>
       </c>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="D8">
-        <v>65</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>24</v>
+        <v>6.12</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>23</v>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>67.680000000000007</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>24</v>
+        <v>6.48</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>23</v>
+      <c r="B10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>6.12</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>6.48</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
         <v>23.62</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>24</v>
+      <c r="E10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B12">
+  <conditionalFormatting sqref="B8:B10">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -1535,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,40 +1395,40 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1592,25 +1436,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
-        <v>379885</v>
+      <c r="D2">
+        <v>46710</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1187151.4952</v>
+        <v>2731780.38</v>
       </c>
       <c r="H2">
-        <v>14639.04184</v>
+        <v>9923.6103600000006</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1622,7 +1466,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1630,28 +1474,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
-        <v>240293.44961681674</v>
+      <c r="D3">
+        <v>59840</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2204404.6216000002</v>
+        <v>3345037.2</v>
       </c>
       <c r="H3">
-        <v>41352.62184</v>
+        <v>28432.799999999999</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1660,7 +1504,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1668,28 +1512,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>46710</v>
+      <c r="D4" s="21">
+        <v>999999</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2731780.38</v>
+        <v>1784013.3448000001</v>
       </c>
       <c r="H4">
-        <v>9923.6103600000006</v>
+        <v>28544.213516799999</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1698,7 +1542,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1706,28 +1550,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>59840</v>
+      <c r="D5" s="21">
+        <v>999999</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G5">
-        <v>3345037.2</v>
+        <v>2230016.6809999999</v>
       </c>
       <c r="H5">
-        <v>28432.799999999999</v>
+        <v>52182.390330800001</v>
       </c>
       <c r="I5">
-        <v>0.35699999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1736,7 +1580,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1744,28 +1588,28 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>999999</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G6">
-        <v>1784013.3448000001</v>
+        <v>802808.92800000007</v>
       </c>
       <c r="H6">
-        <v>28544.213516799999</v>
+        <v>16725.186000000002</v>
       </c>
       <c r="I6">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1774,7 +1618,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1782,28 +1626,28 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="22">
-        <v>999999</v>
+      <c r="D7">
+        <v>94200</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2230016.6809999999</v>
+        <v>5909565.7200000007</v>
       </c>
       <c r="H7">
-        <v>52182.390330800001</v>
+        <v>133801.48800000001</v>
       </c>
       <c r="I7">
-        <v>4.5999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1812,7 +1656,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1820,28 +1664,28 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="22">
-        <v>999999</v>
+      <c r="D8">
+        <v>999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>802808.92800000007</v>
+        <v>5648000</v>
       </c>
       <c r="H8">
-        <v>16725.186000000002</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>44.2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1853,253 +1697,177 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>94200</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>5909565.7200000007</v>
-      </c>
-      <c r="H9">
-        <v>133801.48800000001</v>
-      </c>
-      <c r="I9">
-        <v>7.1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="B9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="13">
+        <v>3791028.3572399998</v>
+      </c>
+      <c r="H9" s="13">
+        <v>84183.129702000006</v>
+      </c>
+      <c r="I9" s="13">
+        <v>6.75</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="L9" s="13">
+        <v>40</v>
+      </c>
+      <c r="M9" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>999999999999</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>5648000</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>44.2</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="B10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="G10" s="13">
+        <v>4014030.0248799999</v>
+      </c>
+      <c r="H10" s="13">
+        <v>76489.572146799997</v>
+      </c>
+      <c r="I10" s="13">
+        <v>6.96</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="13">
+        <v>40</v>
+      </c>
+      <c r="M10" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1951271.6999999997</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45715.5</v>
+      </c>
+      <c r="I11" s="13">
+        <v>3.46</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L11" s="13">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="M11" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="14">
-        <v>3791028.3572399998</v>
-      </c>
-      <c r="H11" s="14">
-        <v>84183.129702000006</v>
-      </c>
-      <c r="I11" s="14">
-        <v>6.75</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
+      <c r="B12" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <v>999999</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="26">
+        <v>802808.92800000007</v>
+      </c>
+      <c r="H12" s="26">
+        <v>16725.186000000002</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L11" s="14">
-        <v>40</v>
-      </c>
-      <c r="M11" s="17" t="e">
+      <c r="L12" s="13">
+        <v>25</v>
+      </c>
+      <c r="M12" s="16" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.65</v>
-      </c>
-      <c r="G12" s="14">
-        <v>4014030.0248799999</v>
-      </c>
-      <c r="H12" s="14">
-        <v>76489.572146799997</v>
-      </c>
-      <c r="I12" s="14">
-        <v>6.96</v>
-      </c>
-      <c r="J12" s="15">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L12" s="14">
-        <v>40</v>
-      </c>
-      <c r="M12" s="17" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1951271.6999999997</v>
-      </c>
-      <c r="H13" s="14">
-        <v>45715.5</v>
-      </c>
-      <c r="I13" s="14">
-        <v>3.46</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L13" s="14">
-        <v>25</v>
-      </c>
-      <c r="M13" s="17" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22">
-        <v>999999</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="27">
-        <v>802808.92800000007</v>
-      </c>
-      <c r="H14" s="27">
-        <v>16725.186000000002</v>
-      </c>
-      <c r="I14" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="J14" s="15">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L14" s="14">
-        <v>25</v>
-      </c>
-      <c r="M14" s="17" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:C14">
+  <conditionalFormatting sqref="A9:C12">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:XFD14">
+  <conditionalFormatting sqref="N12:XFD12">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -2110,57 +1878,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2168,525 +1939,466 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>0.41</v>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.246</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>98</v>
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="E11">
-        <v>0.246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
       <c r="D13">
-        <v>0.35</v>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.47851999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>0.38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>0.34179999999999999</v>
-      </c>
-      <c r="E19">
-        <v>0.47851999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
+      <c r="A20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="20">
-        <v>1</v>
-      </c>
-      <c r="E24" s="20" t="e">
+      <c r="E20" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="20">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="19">
         <v>0.36</v>
       </c>
-      <c r="E25" s="20">
-        <f>D25*E23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="20">
+      <c r="E21" s="19">
+        <f>D21*E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="19">
         <v>3.4180000000000002E-2</v>
       </c>
-      <c r="E26" s="20" t="e">
-        <f>D26*E24</f>
+      <c r="E22" s="19" t="e">
+        <f>D22*E20</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="20">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="19">
         <v>1</v>
       </c>
-      <c r="E27" s="20" t="e">
+      <c r="E23" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="20">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="19">
         <v>0.32</v>
       </c>
-      <c r="E28" s="20">
-        <f>D28*E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="E24" s="19">
+        <f>D24*E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="19">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="E29" s="20" t="e">
-        <f>D29*E27</f>
+      <c r="E25" s="19" t="e">
+        <f>D25*E23</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="20">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="19">
         <v>1</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E26" s="19">
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="20">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="19">
         <v>0.4</v>
       </c>
-      <c r="E31" s="20" t="e">
+      <c r="E27" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="20">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="19">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="E32" s="20" t="e">
+      <c r="E28" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="20">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="19">
         <v>1</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E29" s="19">
         <v>1.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="20">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="19">
         <v>0.6</v>
       </c>
-      <c r="E34" s="20" t="e">
+      <c r="E30" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="20">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="19">
         <v>0.20499999999999999</v>
       </c>
-      <c r="E35" s="20">
-        <f>D35*E33</f>
+      <c r="E31" s="19">
+        <f>D31*E29</f>
         <v>0.24599999999999997</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A34:C35 E34:E35">
+  <conditionalFormatting sqref="A30:C31 E30:E31">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:E29 A31:E33 A30 C30:E30">
+  <conditionalFormatting sqref="A20:E25 A26 C26:E26 A27:E29">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
+  <conditionalFormatting sqref="D29:D31">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -2703,7 +2415,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D35">
+  <conditionalFormatting sqref="D30:D31">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2717,7 +2429,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E32">
+  <conditionalFormatting sqref="D20:E28">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2733,7 +2445,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:E33 E34:E35">
+  <conditionalFormatting sqref="D29:E29 E30:E31">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2764,7 +2476,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:D35</xm:sqref>
+          <xm:sqref>D29:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E85B9C7-47A1-4A72-AFA7-ECBDF57A980E}">
@@ -2779,7 +2491,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34:D35</xm:sqref>
+          <xm:sqref>D30:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C33EC4F1-28F5-4EE1-B5B3-9F07A8D9C507}">
@@ -2794,7 +2506,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+          <xm:sqref>D29:E29 E30:E31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2812,49 +2524,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2875,61 +2587,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -2937,22 +2649,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>0.69</v>
@@ -2996,22 +2708,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>0.9</v>
@@ -3055,22 +2767,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>0.86</v>
@@ -3130,19 +2842,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3165,10 +2877,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Input/urbs_intertemporal_2050/2026.xlsx
+++ b/Input/urbs_intertemporal_2050/2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F050A2-324A-4A29-ADB0-B9CF8637B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF6B9C-CD77-491C-9343-D01C4140044A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,25 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -944,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1364,7 +1382,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1863,12 +1881,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9:C12">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:XFD12">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1880,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,8 +1982,9 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1.2</v>
+      <c r="E5" s="19" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1981,6 +2000,10 @@
       <c r="D6">
         <v>0.6</v>
       </c>
+      <c r="E6" s="19" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1995,8 +2018,9 @@
       <c r="D7">
         <v>0.20499999999999999</v>
       </c>
-      <c r="E7">
-        <v>0.246</v>
+      <c r="E7" s="19" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2294,8 +2318,9 @@
       <c r="D26" s="19">
         <v>1</v>
       </c>
-      <c r="E26" s="19">
-        <v>1.2</v>
+      <c r="E26" s="19" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2389,20 +2414,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:C31 E30:E31">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:E25 A26 C26:E26 A27:E29">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A20:E25 A26 C26:D26 A29:E29 A27:D28">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -2416,7 +2441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D31">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -2429,15 +2454,15 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E28">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="D20:E25 D26:D28">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -2446,6 +2471,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 E30:E31">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C33EC4F1-28F5-4EE1-B5B3-9F07A8D9C507}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2454,7 +2498,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C33EC4F1-28F5-4EE1-B5B3-9F07A8D9C507}</x14:id>
+          <x14:id>{C94904AD-7F56-4C00-BC40-E02F3258F971}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E28">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E28">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C3A16FF0-14D1-44D8-AFF1-95870140D9F1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2508,6 +2571,36 @@
           </x14:cfRule>
           <xm:sqref>D29:E29 E30:E31</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C94904AD-7F56-4C00-BC40-E02F3258F971}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E5:E7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C3A16FF0-14D1-44D8-AFF1-95870140D9F1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E26:E28</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
